--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167653.0190126519</v>
+        <v>-170241.6296925149</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>258.1289300713499</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>183.6887379811638</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>92.06207933418393</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>67.22331801800679</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>76.28504128944626</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>26.46499605531635</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1108,19 +1108,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>232.600133067548</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>22.24788044761334</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>186.0004315816761</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>201.6878962654311</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>14.09020001492294</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>24.55279487175522</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>178.5134655978075</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>204.9220940686583</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>41.02686156550261</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>107.5034532829756</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>140.1230996349833</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>129.009682740596</v>
+        <v>2.813978415465053</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>100.7362831624776</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>106.2078024559162</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.6197054599889589</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>201.9389347702759</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>28.23631843387954</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,10 +3007,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>207.0967504439648</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>31.83025205764034</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>38.61213096654769</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>254.4710728434501</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.355549430153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>174.2996212791701</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1230.636903877521</v>
+        <v>736.6224273402288</v>
       </c>
       <c r="C2" t="n">
-        <v>861.6743869371094</v>
+        <v>736.6224273402288</v>
       </c>
       <c r="D2" t="n">
-        <v>503.4086883303589</v>
+        <v>378.3567287334783</v>
       </c>
       <c r="E2" t="n">
-        <v>117.6204357321147</v>
+        <v>378.3567287334783</v>
       </c>
       <c r="F2" t="n">
         <v>117.6204357321147</v>
@@ -4328,16 +4328,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816087</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872918</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926588</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.181083656474</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
-        <v>1416.181083656474</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1230.636903877521</v>
+        <v>736.6224273402288</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057869</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2362.9309660677</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1387.807075285521</v>
+        <v>2013.576367813028</v>
       </c>
       <c r="C4" t="n">
-        <v>1218.870892357614</v>
+        <v>1844.640184885121</v>
       </c>
       <c r="D4" t="n">
-        <v>1218.870892357614</v>
+        <v>1694.523545472786</v>
       </c>
       <c r="E4" t="n">
-        <v>1218.870892357614</v>
+        <v>1546.610451890393</v>
       </c>
       <c r="F4" t="n">
-        <v>1218.870892357614</v>
+        <v>1399.720504392482</v>
       </c>
       <c r="G4" t="n">
-        <v>1218.870892357614</v>
+        <v>1231.734039700761</v>
       </c>
       <c r="H4" t="n">
-        <v>1070.13199422112</v>
+        <v>1082.995141564267</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
         <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
         <v>2508.006390496681</v>
@@ -4510,28 +4510,28 @@
         <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="V4" t="n">
-        <v>2307.654840194268</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="W4" t="n">
-        <v>2018.237670157308</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="X4" t="n">
-        <v>1790.24811925929</v>
+        <v>2195.224832643268</v>
       </c>
       <c r="Y4" t="n">
-        <v>1569.45554011576</v>
+        <v>2195.224832643268</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>956.372303282041</v>
+        <v>1671.539306344595</v>
       </c>
       <c r="C5" t="n">
-        <v>587.4097863416293</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D5" t="n">
-        <v>587.4097863416293</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E5" t="n">
-        <v>201.6215337433851</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F5" t="n">
-        <v>194.6760329941816</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,16 +4562,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583054</v>
+        <v>2410.907801678832</v>
       </c>
       <c r="W5" t="n">
-        <v>2106.577233583054</v>
+        <v>2058.139146408717</v>
       </c>
       <c r="X5" t="n">
-        <v>1733.111475321974</v>
+        <v>2058.139146408717</v>
       </c>
       <c r="Y5" t="n">
-        <v>1342.972143346163</v>
+        <v>2058.139146408717</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>496.0729413699638</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>790.7764984014354</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M6" t="n">
-        <v>1154.038517360656</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.323645957601</v>
+        <v>1715.293511287797</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>2047.363946463959</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2294.546680296256</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>471.9783454282416</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="C7" t="n">
-        <v>471.9783454282416</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="D7" t="n">
-        <v>471.9783454282416</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329314</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>692.7709245717717</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W7" t="n">
-        <v>692.7709245717717</v>
+        <v>824.8383149077158</v>
       </c>
       <c r="X7" t="n">
-        <v>692.7709245717717</v>
+        <v>802.3657083949751</v>
       </c>
       <c r="Y7" t="n">
-        <v>471.9783454282416</v>
+        <v>802.3657083949751</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1136.221880202098</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="C8" t="n">
-        <v>1136.221880202098</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="D8" t="n">
-        <v>777.9561815953474</v>
+        <v>1020.544708344027</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953474</v>
+        <v>1020.544708344027</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057398</v>
+        <v>609.5588035544192</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4835,19 +4835,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.012626270159</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>1896.2874785273</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X8" t="n">
-        <v>1522.82172026622</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="Y8" t="n">
-        <v>1522.82172026622</v>
+        <v>1378.810406950777</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>768.6303371471284</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="C10" t="n">
-        <v>768.6303371471284</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
         <v>768.6303371471284</v>
@@ -4954,58 +4954,58 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1622.213594806899</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.115628253778</v>
+        <v>1622.213594806899</v>
       </c>
       <c r="V10" t="n">
-        <v>793.4311400478913</v>
+        <v>1367.529106601012</v>
       </c>
       <c r="W10" t="n">
-        <v>793.4311400478913</v>
+        <v>1367.529106601012</v>
       </c>
       <c r="X10" t="n">
-        <v>793.4311400478913</v>
+        <v>1139.539555702994</v>
       </c>
       <c r="Y10" t="n">
-        <v>768.6303371471284</v>
+        <v>918.7469765594642</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639638</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5258,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,16 +5355,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>221.3431781811715</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969303</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951537</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>659.9487421954783</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C16" t="n">
-        <v>491.0125592675714</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>302.4540366416804</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>135.2579373565604</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>135.2579373565604</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1579.796507104226</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W16" t="n">
-        <v>1290.379337067265</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X16" t="n">
-        <v>1062.389786169248</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y16" t="n">
-        <v>841.597207025718</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="17">
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>214.9229991561138</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>633.4413279836774</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C22" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D22" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2316.650272731174</v>
+        <v>2377.074977392799</v>
       </c>
       <c r="T22" t="n">
-        <v>2097.048807754114</v>
+        <v>2157.473512415741</v>
       </c>
       <c r="U22" t="n">
-        <v>1807.973581098312</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="V22" t="n">
-        <v>1553.289092892425</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W22" t="n">
-        <v>1263.871922855465</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.882371957447</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y22" t="n">
-        <v>815.0897928139171</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5981,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2156.827640693835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U25" t="n">
-        <v>1867.752414038033</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1613.067925832146</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1323.650755795185</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X25" t="n">
-        <v>1095.661204897168</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>874.8686257536381</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="26">
@@ -6230,16 +6230,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.33711846916</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2263.482284124065</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2043.880819147006</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1754.805592491204</v>
+        <v>1840.528062267928</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.121104285317</v>
+        <v>1585.843574062041</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.121104285317</v>
+        <v>1296.426404025081</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.131553387299</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="29">
@@ -6458,16 +6458,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6479,10 +6479,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,19 +6540,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,25 +6686,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6719,28 +6719,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836018</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C34" t="n">
-        <v>565.7099969556949</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D34" t="n">
-        <v>415.5933575433592</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>267.680263960966</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>267.680263960966</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>267.680263960966</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>125.9684328031641</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2407.960931088798</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138415</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="35">
@@ -6929,22 +6929,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6953,10 +6953,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7172,7 +7172,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,10 +7181,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2203.85715631835</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1984.25569134129</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1695.180464685488</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7816,28 +7816,28 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>255.5240487471575</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>60.35797727397565</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>73.6605958099978</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>129.4330134067482</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>43.24107705282909</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>148.7471156703615</v>
       </c>
       <c r="G2" t="n">
-        <v>77.31661866098203</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>202.5492006748898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>73.62417772602052</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>13.66255928343645</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>40.23897475306291</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>144.6341900408524</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>39.70888054695399</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462254</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016455</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>52.0166032610486</v>
+        <v>178.2123075861795</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>66.51053793615023</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>111.1976478713721</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>65.75554125013272</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>84.24553961896819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>137.2878198583893</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>45.04089287986324</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>49.43558426092518</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.4141550350969</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>31.713401545794</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.22910392194177</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>6.726664722474453</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26326,34 +26326,34 @@
         <v>302679.9748837522</v>
       </c>
       <c r="G2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="H2" t="n">
         <v>302679.9748837521</v>
       </c>
-      <c r="H2" t="n">
-        <v>302679.974883752</v>
-      </c>
       <c r="I2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="J2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="K2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>302679.9748837523</v>
-      </c>
-      <c r="L2" t="n">
-        <v>302679.9748837522</v>
       </c>
       <c r="M2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991059</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363181</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81423.93747406533</v>
+        <v>81423.93747406527</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
@@ -26439,25 +26439,25 @@
         <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707343</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980084</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1014392.526886931</v>
+        <v>-1014613.658200906</v>
       </c>
       <c r="C6" t="n">
-        <v>83043.16442763663</v>
+        <v>83043.16442763666</v>
       </c>
       <c r="D6" t="n">
-        <v>83043.16442763663</v>
+        <v>83043.16442763658</v>
       </c>
       <c r="E6" t="n">
-        <v>-312825.4210614085</v>
+        <v>-312860.1589868437</v>
       </c>
       <c r="F6" t="n">
-        <v>194660.0205631377</v>
+        <v>194625.2826377019</v>
       </c>
       <c r="G6" t="n">
-        <v>194660.0205631378</v>
+        <v>194625.2826377022</v>
       </c>
       <c r="H6" t="n">
-        <v>194660.0205631375</v>
+        <v>194625.282637702</v>
       </c>
       <c r="I6" t="n">
-        <v>194660.0205631377</v>
+        <v>194625.282637702</v>
       </c>
       <c r="J6" t="n">
-        <v>27054.84275315523</v>
+        <v>27020.10482771983</v>
       </c>
       <c r="K6" t="n">
-        <v>194660.0205631378</v>
+        <v>194625.2826377018</v>
       </c>
       <c r="L6" t="n">
-        <v>194660.0205631375</v>
+        <v>194625.2826377023</v>
       </c>
       <c r="M6" t="n">
-        <v>62052.72683421099</v>
+        <v>62017.98890877538</v>
       </c>
       <c r="N6" t="n">
-        <v>194660.0205631378</v>
+        <v>194625.2826377022</v>
       </c>
       <c r="O6" t="n">
-        <v>194660.0205631378</v>
+        <v>194625.2826377022</v>
       </c>
       <c r="P6" t="n">
-        <v>170410.5460917579</v>
+        <v>170410.5460917581</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,16 +26978,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>338.6892930194327</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>334.2310841119719</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.73451586971665</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27594,16 +27594,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>158.4863373710303</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,16 +27619,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>335.2626614835077</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27673,16 +27673,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>301.2872624148185</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>19.53751025628</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>203.4617749414238</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>225.5472711912779</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>147.5530724519819</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>206.658495982289</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>194.0318584803396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>485.927610870024</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>266.6561007250657</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>309.7666854143572</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,19 +32549,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>260.1710714068256</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34211,7 +34211,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>463.4318227833011</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225043</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>622.455381029198</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>176.8386996048302</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>260.2480920534826</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>245.9137357376028</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>351.9532034556937</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>128.8146617507067</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>171.212305634483</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>122.3296324324666</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>320.8355783388566</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
